--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/11_Aydın_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/11_Aydın_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB8AA350-C001-4547-A2CF-9E7F427F6C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8C363DA-56E4-4CA1-8709-4AAF90FB1843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{E2926956-AD55-417C-B885-5685BBA2177A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{CB1E9C2F-1684-41C3-8454-EABEB9A45521}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="103" r:id="rId1"/>
@@ -954,13 +954,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{59BBE49A-6FEC-41FE-B6A8-30A9FE727008}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{BC61280B-4658-40FF-B549-BEC189BA0EC6}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{98FD389E-A37C-4405-A2E2-F8FD166A80C7}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{C8B34828-4E64-474D-B52E-ED074F6FDE83}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{3443A521-CC8E-41E7-AA4E-646731EAEA53}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{238E04E2-6DFC-4FB3-BB7D-3D020999E159}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{6E1905F6-DAEA-4182-8E0C-8077C8388D06}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{774E944B-ABEC-400C-BE69-C0772AC47A3C}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{CEEA9F83-EA31-40ED-8B91-C0A25AD44E78}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{AD9D3435-4A4D-4CC1-896B-1AAE04152515}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{AA5209A2-98FE-4A02-A986-FDB548902655}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{0612BD64-7906-4059-8210-3B387564A977}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{069F341A-B08E-4522-B57D-400A1403E572}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{D9C113A1-867E-46B3-B05D-A6FE46C84824}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1330,7 +1330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1AEE014-2FD9-469C-9CB5-324ED68AD9AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D24AB1A5-95EA-4482-A19B-25193DC65D97}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2637,18 +2637,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A900E777-B4C8-4D5E-8C46-8F88F02DEA8B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{12F88E14-6EE9-4065-A190-E04BB1C669A8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2D475CC1-FE26-4524-8D8E-52A40BAE691C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EAE9164E-8F46-470B-9BAF-5BA9C828C598}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E9593E9E-C701-4F4D-8C1E-BCE640B5C229}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3A4B3494-6E08-43D0-8C6D-68D9729AFFC7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C3C085DF-4768-43B3-83BA-555DBD07629E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{79729520-642C-4B39-ADE2-B244E47CFEE9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BD0FD17A-C7F5-4A96-842B-1211150F9603}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{40F453F1-A00E-46AF-9229-E000F0118711}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EB0C6AFF-4BA7-4742-940D-070A57801861}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9A57E0C5-65C2-48A7-AB5B-7C023935FC08}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{52077F4A-3961-4F33-A79D-95C5C56C7535}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F5FA8AC6-A344-404B-B1E4-1E2EB15AD418}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4048BC68-1604-457F-A239-ACD92CF8A0F8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{68AA3B8C-B583-4CC5-98EE-60D5F0C73CD6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9C3F76BB-9DFF-48A7-8632-62018D83DA5A}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B22D1457-863F-47DC-A7D6-BEDB79F47675}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AA65A194-DEB6-4A41-9C27-F660D08C95AE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{72DA7B1D-7B1B-45CE-BBD3-BDE9590D9FC6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1B3B4253-0848-4145-BE55-733160FE608D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F6E10E76-2D21-485F-8DA8-9ED22F597539}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{58061BD4-6C84-4AC7-AFB2-791BE2F2C861}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5D0DBADB-4E24-4AD6-8057-6EE43D3DD0B9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2661,7 +2661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB1C83A-4E29-48B4-8BD0-44E1C614E704}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB73A0D-4B13-4E1B-BC4D-9E4C51069619}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -3933,18 +3933,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{49881E94-3EFE-461C-A37E-E9EBDCD2F8ED}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{25E5EDFD-BAA4-4484-80EF-41A42B32062F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{566B4956-F732-4F10-A31F-B7FE9BAE08FA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{19CE3C8D-BE64-4A08-B3ED-19BBC2695506}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FE3D390E-17C0-4F14-BBDD-EBCFC50F163D}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1BA3FF70-57A3-4968-9661-70191463B8C5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{84EE0AA5-32F2-4DA7-B1DB-18D14B0D6D44}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3FAF7FD8-E490-4785-A361-AB2CBD8A7E95}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{011B30EA-53EE-4E08-956F-56EF2666219B}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B73D6DE6-DEC9-457C-833B-42DF0B2E3B0C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{07F04E22-A182-4128-9085-44B422EB8DA4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AFF0AEF4-8280-48C5-BA4F-06BDB2F94974}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3EF0B6AE-0E2C-459D-B18D-959441F0CDF0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{025D47D6-5E39-439F-981E-D882477D3F6B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{47603737-FD12-4E93-86D5-617E10901E28}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{26ED3424-2692-48AD-B240-12C64C7C7656}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{083CFEB2-9A88-4973-A753-D255D7BE9428}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5B2ED96E-E4C3-4E70-A83F-EC14DC2092F9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5182AF67-EAAC-4622-ABAF-746D3983E7C9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{04B983A2-CA68-4403-BC67-7D33060F2A85}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A6B45DE3-1C40-4AAC-8DAE-A30ADCD13B69}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{833957F2-92D3-441E-A646-3143470A4AD9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B642B08A-EBDA-432D-B4F1-3DC9E365E479}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{278298BA-FA35-4C65-9E1E-0D2A5C320DFB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3957,7 +3957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C792A30C-60BE-4EB5-B4E0-DDFFE026DE7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0290A578-0893-4519-BF84-FA8AABE7CE2D}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -5225,18 +5225,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{297D3953-DF9F-4694-82D2-96A35D00A4A3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{77598C9F-A02E-4A5E-B671-484E86DC85D0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8BC4A2D9-96DC-4CBB-87A2-12CFA1B9D744}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B1573A1F-0019-4E7B-B240-C3F4E18A2885}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1A88C699-3210-4C57-A8A3-D331AA1A51BE}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CD4D3981-019D-42F9-B295-45844D23D049}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5AEE24AD-1175-4618-8B34-97266FFF9812}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{51C6F43D-EB88-416F-8AAE-30A671F3B3C5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{592B3A67-6F0A-4DB5-A6F3-9B7026F77580}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5003915B-FFCC-46B9-96F0-6EA280575494}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7BB14998-001C-4D54-B0E6-56F7CF35D55B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{06D0DB7D-42D6-4665-9F4C-1A126AF52E9F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{01F3E895-75E1-4E26-BF13-FA45CE424367}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{43D3410D-BA70-4C74-90A3-5282D6C41290}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AA4AADF5-23F2-45D4-B16F-1BB6E9036E4F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{32D4CC96-6B5E-4B99-8BBE-F1E6FE26D70A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BACBF418-4954-4ED0-9526-F973057BD65A}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FECBA068-DF32-4784-9AA4-C2B4C098398A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F2961A6F-804B-4ABA-9851-47027AACD904}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2F63454C-D0ED-498F-8CC7-9FB796917242}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3591D1BC-9B5E-4B2A-862C-E248058007EB}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{BEB3868D-1C2F-4F8E-9DC5-5EB5EF276DEE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{951091D5-0B61-4872-9864-1588977B3035}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AC59EF46-2A2D-405B-AB2C-9BF32C368C85}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5249,7 +5249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A208C278-9F9C-4CD0-A21B-049E2DEDD653}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9342E0B0-1F30-463C-98CE-EACF1827EF71}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6511,18 +6511,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{56F171A2-1166-4F05-BF10-D00F55A03DB1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{356F66D5-925F-4E7D-8E11-106A44BE67E9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{068D07E3-6369-41D5-8374-D07DC15BB8C8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0C26CD6A-4BB1-420F-83E3-0D0C374261F5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{131E5E71-1A28-4A1C-944A-4787BE0246D8}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4FBEB0D6-6332-4086-B212-4119B998F6E6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FB791A22-7775-4A2A-8D9E-2A209DA80601}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{15B33902-8341-4760-915E-DA73D55BE6D3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{14C2F0F5-8AEE-4E7E-A945-90A5CDEAEE21}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{48F0737F-5922-438F-A4B2-A2DEBEF7997C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{41ADF24F-0703-4F67-89B9-D9758C9631C2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F9547D60-9E71-4D2D-98C9-D93EB66D1939}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DFF2BCDD-D519-4FFF-97C0-5F72B317AA7C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E280CBDA-5EC6-4A1E-93D8-52E46B577144}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1AC47C55-1A31-4446-885F-A1C19B81C4A5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0AC49826-13CE-4968-8ADB-45C82222F4E8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4B73F10C-8A70-4369-B2F1-DF2902AF6961}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FB2D7DCA-A1D5-43A2-BF14-7966DE19D0CD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{39C95E5D-1514-4721-A447-1022A88B06A4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DC0B1176-22DF-47B2-A281-207D4B9C165D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CE913E2C-2660-458A-84A3-7054D4228F66}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7E5403AA-4866-4629-A98E-B762B11238FD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9EBE5372-DCEE-4570-82CA-BD7DAE838E7A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3C87B526-7A59-4416-8B3B-2FDEAA45A1A4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6535,7 +6535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5706AEAC-71CB-4ED7-8F24-0907A3DB2D78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAABA78-84D7-44E5-A1FC-7B621A3B78A0}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7842,18 +7842,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9BB0D1AC-25A9-4C85-A20A-75C6E60FB482}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FAA9F289-CCFF-4715-9D23-7F2022200EF3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{56155186-A6B6-44F6-A5EF-595CC0055F71}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F2D959BE-AC58-4B5D-9D7F-22A19236CE79}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C2777A0B-8E67-4617-ABC1-8ACD57F7A696}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0B40E68F-89A0-4A7A-A470-5D90B652AEBA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3CE7CF8A-86C0-4334-952D-DC1363181CB3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5234B72B-10E2-428E-B6FA-213230E0E2B3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BEEE9169-4C1D-4298-BDC0-DC97C87507B4}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2F4B9C8B-E482-430C-8DB1-4152B42CCA0C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DF3C692D-B9DF-423E-A4F7-990CB9CA4FAE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{84BEE1CB-A190-4062-A232-61DB3427D567}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6DC9FC3E-31C8-4B0D-AB6F-002E85A25C93}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{356B9840-A63C-4E0E-95BC-DE83642573E6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4B1D1A2E-6664-40D6-901C-FFBE03B356FC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{69098453-B400-4D03-A74D-C3FA8DFA13D3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9A1BAFA0-9F58-4B37-AF00-197B640FD013}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E02DAC92-06FE-4F93-A191-84DDF7CC7DC9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7D02C77C-DDF3-4823-AF37-A8AED0273BBB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EF6A479A-91F3-46AE-B5E6-DCF05684766F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6383802F-61B6-44D3-A0E5-37AA7EE81461}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B8F1D86D-9CFF-4287-8A30-D34B3025A6C9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8F33EEC2-7234-42C2-8524-568D5FA02E99}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{37F0160F-0B7A-423E-A324-17FF06E4B7FD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7866,7 +7866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94987574-B85E-48C3-AC0B-CA64DC229184}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12243908-63EE-40FB-A246-7498B8CCE30E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9173,18 +9173,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F0E47838-B1BC-4087-856B-D4E4EDB33787}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9C842AFB-65CF-49F2-80CA-D98B0E54F138}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{790C078E-B899-444F-A20A-7D7969E58EAB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D4C84EBC-908F-48E5-9A34-7B39BA93964B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0D2D6481-34FB-440C-B51D-01E9B9D6B696}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8F010066-7CE1-42B7-A447-EE397964C429}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0C281D80-5C26-49AF-A6B9-4FBD8016A639}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6DCB4FD4-AB4D-407E-B677-DC3F72DF229B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{27FF5944-F274-4C54-A06E-539478D3B4CA}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2741F93B-A146-438E-AB03-139619831856}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3F7DF6EF-6A42-4D4B-B4E3-BD5ED27B7C1D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{222B3205-8995-4E99-B41B-7BEC611D5072}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AB42275A-BFE9-4A2B-A44C-46C0435DFC3A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5A9F07A0-90BA-4510-A95C-CAF0820E505E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E74E0D48-F085-46DF-B094-1089EF1E6D09}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5AC8C856-AD0E-4CF3-A339-442AA24C1362}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DC55607B-DD82-401F-A74D-082E75E2F334}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D0430F96-A719-4411-BB9D-F6EBC8C543DF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6187CBD4-6E95-4A3A-AD4F-587C8DD348DF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7B208CA8-65F9-4EC6-83CA-806562CF295A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{25BAE096-755E-4583-8154-7FFF3E5B8A17}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D7E8AA68-C005-4446-A22A-07DE79EFD7AD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FD07B805-ABCA-4520-AFE4-4A9EEB7B169F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CF5F1D59-6770-4C32-93C7-5B3C11D068A8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9197,7 +9197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFCBB4D-8CF9-4AD0-8B4D-B0793D65E9F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38068408-68C1-4AFE-A4F0-715431D7C921}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10500,18 +10500,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B3305CA2-9808-4BB8-9573-4DA6EE4F066A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{76A204B7-53E1-4988-A091-EE8A6A423073}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{119217BB-A00A-4B2D-8240-7D7F967E0096}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8C7DD15D-9424-43A6-8F4C-E180724BF776}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E97CA11D-2258-480A-9473-62209A2770D3}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D08666EE-9C80-4AB9-9970-0DBEC5ABEDB9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EAF03325-6D98-4710-82B2-94DE9F996533}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8D788D65-D8AC-47BB-96AB-76C32BDA8334}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CFC5448E-859A-4B58-A02F-C0EADE5F6277}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{93567FE6-F745-492B-9B16-1070B31E6262}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D88AC407-2620-460D-83BF-9F2E353CCA3C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6D7D6E4F-7F55-4C0E-8A5A-DE8509C39F17}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2C80E1FD-0030-47F2-AC24-684248321E9A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3B952E23-FACD-4EE0-8C62-020B6976C319}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0704BD3D-4B75-4400-97DA-D5FD48E13DD9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{24A25A1A-C46C-46D9-B435-E6FD51BE49DC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{411AC1A9-7892-48AE-B7A5-58250297D0A8}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{615C706D-B73C-463C-AC7D-700B5C731008}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7BA3A0A9-AEFA-4FE7-81C5-F0485EE27B3B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2DF24B9F-4182-45E1-826E-4DE9FD3CF0E1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9DA26B00-5130-4FA1-8CF6-37AC961A9AC4}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{05725609-F259-468C-B55A-5A5F5E9B1867}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5E7601E8-C1F1-434B-ACEC-3088C1F8D02F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FBFD374B-02E1-466C-8F03-3901A75BE546}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10524,7 +10524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06FE8B79-8267-4B44-97FB-0D3B35EF7118}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A127DB-BED9-43E2-86C9-16A3B0471BF8}">
   <dimension ref="B2:G104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11891,18 +11891,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3B35B320-1E14-4C7E-BDF3-BC7E1786B49E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1D745FA3-C236-4592-BE8E-A76E0E47C587}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4F014D70-159B-4AE0-9B73-39DE19F5AA53}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ED30A6B1-CBF0-48BB-8751-0D42CBCCB02F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CDDE1AD6-C47E-4E0F-9D45-0EEB261E8BE9}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6A339015-C064-4A34-A38B-C0301F8376A6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{53DFCEC3-704C-4E9E-987E-06BE5122C522}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D5930A7E-204C-4FE6-80BE-B2146F0C5A34}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E5A03EDC-6905-4B29-981B-02F9AB7FAA23}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{805FA9CE-7321-4D5A-BDAD-E419E9BB6A3A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C3B009D7-111A-448C-9A09-9688307BBE64}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CE9353C2-9EF6-4664-9C28-C65E9F644631}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8380AB84-C512-4C98-9741-0FA8BA0511A3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BD347947-6E03-4A58-963A-E77BB29AC0D6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EF517D9D-87A5-4CB1-B34D-642BC8B84C08}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6D8A2FFB-672D-43B5-8417-A3C38CE1C647}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C5EC9203-5C77-41A7-8E19-AB33CEFC0853}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{04ACD15A-2A05-49E3-BD16-539477002334}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{86434337-C01A-4723-8B68-0E36CA405DF8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AD8600C8-6E3A-4239-953B-7965C759ED84}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E43E7B77-5DD0-4494-B779-CC17C990CC48}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3C767988-CB3B-412F-8221-2E22EC9D3A6B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CBCE3A11-0339-4144-B833-CB301AE6CF69}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{86DFB3EE-29C3-4CA1-A974-BA920B423C4F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11915,7 +11915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F702179-31E4-4A91-9180-927CCF484163}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233E9B0F-C3B5-4701-AB6D-7183B4944290}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -13203,18 +13203,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5720695B-9D1A-41FC-835A-51EBB0B8F4AE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D4CB33D3-4C3D-44D9-BC47-8D5BD68F658C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E26A3BCD-2192-45BD-8428-A98C98A61172}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7A592C12-B0DF-4937-8610-8D5DD06ED785}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A8637717-5F83-4117-94B6-070BBB2E31CC}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{646B01D3-A9AC-4D81-B919-458B19DF9479}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{951BD2EA-E758-4F9D-B8E6-0798A4762C9F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DDA49560-B217-4797-BBA2-A333E14A7981}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{49AE07FE-BDD2-4237-9797-5B9F49032EAB}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{AE7A5C73-0414-49FE-9115-8D5E0136F45D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8BD8C6F6-8E4D-4563-B2A4-C133E7E10908}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E3E384A8-B6B3-4973-86A4-F4B28511E67F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F40256FA-9EBA-4131-B618-26092168704D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B71F5E0F-6ED0-4D81-9E38-73B1D74F7F48}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{89DE0725-DDC8-4553-8FAC-2DC64AF7314E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E8F90DF5-6A36-46EF-B47D-D82248D9D8BE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C8A1CB59-6F76-4A6B-9995-CAC19D243552}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{065C0F8D-1F6B-4252-979F-F789D224A37D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DDACCCA1-21AF-4C7E-92C7-7C4F55DD395F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{33336D27-2A23-424B-B79D-DED29F996EC4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5AE43D88-CA0D-45F8-BF73-2A46B0A5C1B3}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5884C269-1065-4D0D-B664-81671FA68DCE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B64F4E71-C24F-45F4-92A0-17DEDEEC70E5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7043E4F3-4632-4BEC-8B86-C129FC7F385B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13227,7 +13227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6813902-BF87-4C39-BA23-C156FC25104F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72735D4C-99C3-4807-BD3C-1BE350052761}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -14505,18 +14505,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1CC8D1EF-F8FE-48FC-BBB5-5DA15046BD5D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{21B20FDC-C716-406B-9CE2-7ED734BB9D2D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{81D72C1D-D1E3-41D2-ADCD-C3B297C79711}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4080462F-7789-4830-8D94-E7118D20F98C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0EC17D5F-5C05-433D-99AB-90C2E4952E20}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2290D4B0-B9DE-4892-A981-CD7D2488869E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6977E8D3-D9EC-4758-B46B-5C1BED93AC59}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A89B5CDD-3B58-4516-B48A-5C2084269FEF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3F73429A-EDD1-47F9-A522-CADCF99F9DAE}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{CF3458E8-CA04-4BFC-B226-6CB56F6970FF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{428925B9-414B-41C8-9BC6-BE2DF5336546}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{78629661-8376-4A23-86F7-1677679CEB7B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EF5C6EC8-D95B-4297-81F1-1C68614489A1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{26BE4280-74FE-4350-9EFF-A90E19469103}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9540A5F4-DB29-46DB-93BC-90A265D192E1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C302E5CD-2C22-4459-8832-80A20CF008F8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A6214299-B937-413D-B3B3-F989767B8476}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C75C0F4F-887A-4B73-89E6-8CFF65050680}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6EF1BFCC-ABDB-41FD-ADFD-F70BD4A450CB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{85A8B2B3-1602-4931-B184-236090DB1771}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{968479E2-B80B-4D23-92E3-C62101992C34}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3AC784A1-FADB-46CA-AE16-4E8322C99667}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{733AEFA9-93EF-45D8-9A3B-3D5336DCC08B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{735A09C6-0894-4B2A-A3CF-57CD1C49630C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14529,7 +14529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A281F763-B4D5-4161-8DDE-D9682433F0F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0B6DED-D856-4A3A-B92A-C16B18820912}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -15807,18 +15807,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{55C41A81-33C8-4BD7-90AA-921263E952D7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{40288293-80C9-4A53-B207-C5C94E8A9610}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D077D574-E5FC-4B58-A24B-4A0D696A827E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{39F8DD5A-98B9-4CE1-89DF-F99BA5F23291}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CF2BAD9C-6F41-4EDA-9AA8-8382CB15C504}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D348C4E0-1296-4FD4-B94D-D38ABD41833A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{449DD730-853A-4373-B355-3D883E75EE96}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6C65432D-8019-442B-A90F-9211A7C37BAD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C0DDC1F8-C6FC-44FD-9A42-AD1E77A12AD1}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A2B6F4D5-B65C-4367-A0C0-8993CBE88CEF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{54CAAFC8-E0CC-4480-AE4E-0E3D96F4B560}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{02404843-5E47-4262-B2C0-BD075322812D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1ADCCB27-9249-4A2E-8F1B-BB595DD08B18}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{904B402E-1AF9-4224-B24D-4576C9C5ABEA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7EE79516-1B11-44E8-BF35-83921F380C54}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E2ED9BCF-8783-4277-A582-9B8EF8BBBC2A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{54B15830-8673-41D7-B1FD-F4F919535FEB}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A24D2638-5364-4E16-BC6A-670E36AFB978}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2264FEE3-0C31-49B7-8B5C-A2C1E0F752E4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2B0C4563-68AC-4411-B51C-6A2A0818CB42}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A691F5F1-FE1B-432D-802B-64038D796961}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{36871F11-387C-4DF2-A3D8-5306DDADEE3D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8C12F8DB-7363-4F7D-A676-9C8BD61BAD1C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7D2D1754-07E1-4EB4-A727-AC400CA127A7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15831,7 +15831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E38A827-C7B1-4DCA-9DF9-5DA2C12174B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0E6DF6-93AC-4279-A5A8-28402AF0C562}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -17105,18 +17105,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DAA88CA9-FEC1-4C22-A7D5-7992CD5924E4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D9AAF3FD-11EB-46D8-85C5-55AA0A38E32B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{175EBFFF-FFCE-457F-A42F-4F9A0C59D8DD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6A361FC4-3209-48C1-AA59-05A78D5C609C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A6DB911D-93BB-483B-8B0A-DA3709D096DE}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{70CA20FF-8823-4B28-845B-C66D690C828F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{18F39AB3-DF5C-4C7F-8750-8BEAB30661FE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A94E0E00-F44E-4A22-9262-72C19A3C4D9D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6D9C13B3-A7E7-4429-A1DD-0C389248325A}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{EB066FF2-9053-405D-AD73-9B80A9C741BF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{275573CD-D17B-4CC6-B654-7BECC3BDDB23}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{87D61513-DFF5-492A-B4D3-211B087CC48A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{69C2B548-C3B1-47A4-B2B0-CDDDA68FEFDE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8C4BB06E-75FC-4F27-8B36-6AB489D1A2D2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C3A101EC-6770-49E5-B23D-736FD48BCAB9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D3F3BD11-F503-4433-BF32-F7747EFF2797}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1FD8CA92-4F8B-4C2D-B3DD-F020402B55A5}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3F0F957A-6B34-48AB-A942-BA799411D3CA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C1D14288-E856-4371-A474-82547FC91B7B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3BB35EBC-8FD7-457A-9E18-B37CC7FAF8BE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F9429629-0B73-422A-8FF7-6A0F05EB0EF8}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1CFA92BC-F172-4EB5-B89E-6F0504A700A7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EF394918-BA3F-495C-A7EE-69ED94EABB6D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B919365B-CE42-4497-8107-23CA8D55FBCD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
